--- a/Sous_Systeme.xlsx
+++ b/Sous_Systeme.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KS759734\Desktop\Outil de chiffrage\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F516D6A-2422-4302-A170-C028DF68B5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1400" yWindow="1400" windowWidth="14400" windowHeight="7400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>N°Sous Système</t>
   </si>
@@ -22,9 +28,78 @@
     <t>Désignation</t>
   </si>
   <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
     <t>8.1</t>
   </si>
   <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t>11.1</t>
+  </si>
+  <si>
+    <t>11.2</t>
+  </si>
+  <si>
     <t>CONTRÔLE D’ACCÈS</t>
   </si>
   <si>
@@ -95,16 +170,13 @@
   </si>
   <si>
     <t>VACATION POUR TIRAGE DE CABLES</t>
-  </si>
-  <si>
-    <t>RESERVE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,11 +239,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -213,7 +293,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -245,9 +325,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,6 +377,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -454,14 +570,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A26" activeCellId="5" sqref="A31:XFD31 A30:XFD30 A29:XFD29 A28:XFD28 A27:XFD27 A26:XFD26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,212 +587,196 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>3.1</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>3.2</v>
-      </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3.4</v>
-      </c>
       <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>3.5</v>
-      </c>
       <c r="B5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>3.6</v>
-      </c>
       <c r="B6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>3.7</v>
-      </c>
       <c r="B7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>1.2</v>
-      </c>
       <c r="B8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>1.1</v>
-      </c>
       <c r="B9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>1.3</v>
-      </c>
       <c r="B10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>1.4</v>
-      </c>
       <c r="B11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>1.5</v>
-      </c>
       <c r="B12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>2.1</v>
-      </c>
       <c r="B13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>2.2</v>
-      </c>
       <c r="B14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>2.3</v>
-      </c>
       <c r="B15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>2.4</v>
-      </c>
       <c r="B16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>4.1</v>
-      </c>
       <c r="B17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>4.2</v>
-      </c>
       <c r="B18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>5.2</v>
-      </c>
       <c r="B19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>8.1</v>
-      </c>
       <c r="B20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>8.199999999999999</v>
-      </c>
       <c r="B21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>9.1</v>
-      </c>
       <c r="B22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>10.1</v>
-      </c>
       <c r="B23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>11.1</v>
-      </c>
       <c r="B24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>11.2</v>
-      </c>
       <c r="B25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>7.1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
